--- a/apps/load_data/2014/06/PLMOVMAE.xlsx
+++ b/apps/load_data/2014/06/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2014\HHY0614\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HHY ACTUALIZADOS\2014\HHY0614\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC550DC-DD99-4485-914D-CD7388089A44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6201C294-3B32-42B1-A448-C3AC54E62E05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24585" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24585" windowHeight="8235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$1</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$237</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -7666,7 +7667,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -8506,10 +8507,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -50853,6 +50856,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF1" xr:uid="{20C9E17A-A29C-4909-AA36-35F955338D60}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>